--- a/biology/Botanique/Syndicat_mixte_pour_l'aménagement_et_la_gestion_du_Grand_Parc_de_Miribel-Jonage/Syndicat_mixte_pour_l'aménagement_et_la_gestion_du_Grand_Parc_de_Miribel-Jonage.xlsx
+++ b/biology/Botanique/Syndicat_mixte_pour_l'aménagement_et_la_gestion_du_Grand_Parc_de_Miribel-Jonage/Syndicat_mixte_pour_l'aménagement_et_la_gestion_du_Grand_Parc_de_Miribel-Jonage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndicat_mixte_pour_l%27am%C3%A9nagement_et_la_gestion_du_Grand_Parc_de_Miribel-Jonage</t>
+          <t>Syndicat_mixte_pour_l'aménagement_et_la_gestion_du_Grand_Parc_de_Miribel-Jonage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndicat mixte pour l'aménagement et la gestion du Grand Parc de Miribel-Jonage communément appelé Symalim ou nouveau Symalim est un syndicat mixte propriétaire du Grand Parc de Miribel-Jonage dont il assure la gestion.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndicat_mixte_pour_l%27am%C3%A9nagement_et_la_gestion_du_Grand_Parc_de_Miribel-Jonage</t>
+          <t>Syndicat_mixte_pour_l'aménagement_et_la_gestion_du_Grand_Parc_de_Miribel-Jonage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le syndicat est créé en 2017 comme la fusion de trois anciens syndicats[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le syndicat est créé en 2017 comme la fusion de trois anciens syndicats, :
 syndicat mixte pour l’aménagement et la gestion de l’île de Miribel-Jonage (Symalim), propriétaire du Grand Parc de Miribel-Jonage depuis 1968 ;
 syndicat d'aménagement du canal de Jonage ;
 syndicat intercommunal de valorisation de la Rize.</t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndicat_mixte_pour_l%27am%C3%A9nagement_et_la_gestion_du_Grand_Parc_de_Miribel-Jonage</t>
+          <t>Syndicat_mixte_pour_l'aménagement_et_la_gestion_du_Grand_Parc_de_Miribel-Jonage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Membres du syndicat mixte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Seize collectivités font partie du syndicat mixte[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Seize collectivités font partie du syndicat mixte :
 conseil départemental de l'Ain ;
 métropole de Lyon ;
-communauté de communes de Miribel et du Plateau[3] ;
+communauté de communes de Miribel et du Plateau ;
 Beynost ;
 Décines-Charpieu ;
 Jonage ;
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndicat_mixte_pour_l%27am%C3%A9nagement_et_la_gestion_du_Grand_Parc_de_Miribel-Jonage</t>
+          <t>Syndicat_mixte_pour_l'aménagement_et_la_gestion_du_Grand_Parc_de_Miribel-Jonage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,9 +606,11 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis mai 2022, le président est Bruno Charles, précédemment vice-président du Grand Lyon[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis mai 2022, le président est Bruno Charles, précédemment vice-président du Grand Lyon.
 </t>
         </is>
       </c>
